--- a/TestData/TrackOrder/TrackOrder.xlsx
+++ b/TestData/TrackOrder/TrackOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\TrackOrder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D44FAD-C27F-407B-BFF2-DC69975A609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B00C5C-A2C1-4F2B-BA08-28D38B88EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>orderID</t>
   </si>
   <si>
-    <t>currentTitle</t>
-  </si>
-  <si>
-    <t>Factory</t>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -69,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,56 +351,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>332</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TrackOrder/TrackOrder.xlsx
+++ b/TestData/TrackOrder/TrackOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\TrackOrder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B00C5C-A2C1-4F2B-BA08-28D38B88EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7BBB3-F37D-4222-9849-70BD44102E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,19 +351,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -372,7 +368,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -380,7 +376,7 @@
       <c r="A3">
         <v>233</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -388,7 +384,7 @@
       <c r="A4">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -396,7 +392,7 @@
       <c r="A5">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -404,7 +400,7 @@
       <c r="A6">
         <v>332</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" t="b">
         <v>1</v>
       </c>
     </row>
